--- a/legendre_out/CSV/analytically/p2/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a2/a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D229"/>
+  <dimension ref="A1:H229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,12 +374,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a0_err</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>a2_err</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Pval</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Chi2NDF</t>
         </is>
       </c>
     </row>
@@ -388,13 +408,25 @@
         <v>3.99602</v>
       </c>
       <c r="B2" t="n">
-        <v>1.220672273233584e-05</v>
+        <v>1.218982981795412e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.287816702762413e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>9.378826679700238e-07</v>
+        <v>3.712040858314462e-07</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.956795998222726e-07</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.291647799340972</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.27886568774142</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.258329559868195</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +434,25 @@
         <v>4.00097</v>
       </c>
       <c r="B3" t="n">
-        <v>1.785525054131539e-05</v>
+        <v>1.815534434029981e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.394651579348421e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>3.687312092430384e-06</v>
+        <v>5.307203748072805e-07</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.606248840376927e-07</v>
+      </c>
+      <c r="F3" t="n">
+        <v>23.09508817070202</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003237249080249027</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.619017634140404</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +460,25 @@
         <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.107678152733696e-05</v>
+        <v>2.146113097729046e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.19740146557391e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>3.203095459129846e-06</v>
+        <v>6.051272937804771e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.59105878629932e-07</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.00038266411068</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.318357809294458e-05</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.800076532822136</v>
       </c>
     </row>
     <row r="5">
@@ -430,13 +486,25 @@
         <v>4.00497</v>
       </c>
       <c r="B5" t="n">
-        <v>2.509452309308976e-05</v>
+        <v>2.518250242598549e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>2.865889512229486e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>2.916338803797252e-06</v>
+        <v>7.139876604114331e-07</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.13933573294585e-06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.25579409430783</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.02109605520017666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.651158818861565</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +512,25 @@
         <v>4.00697</v>
       </c>
       <c r="B6" t="n">
-        <v>3.193007703190776e-05</v>
+        <v>3.188445123310949e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.225127587254295e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.1255549892005e-06</v>
+        <v>8.469301084169462e-07</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.343439364587824e-06</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.773087287398066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.2380704268650975</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.354617457479613</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +538,25 @@
         <v>4.00909</v>
       </c>
       <c r="B7" t="n">
-        <v>3.353801916321578e-05</v>
+        <v>3.353353115573569e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>-1.103067242140698e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.369382614993125e-06</v>
+        <v>9.331577148142547e-07</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.429786496709626e-06</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.320344330447998</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.1978850504997609</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.4640688660896</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +564,25 @@
         <v>4.01003</v>
       </c>
       <c r="B8" t="n">
-        <v>3.477150456775611e-05</v>
+        <v>3.464783060095807e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8.42244654914969e-07</v>
       </c>
       <c r="D8" t="n">
-        <v>7.319310929037724e-07</v>
+        <v>9.591274581595809e-07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.523358828792924e-06</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.802544997008045</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.7303954471983933</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5605089994016089</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +590,25 @@
         <v>4.01507</v>
       </c>
       <c r="B9" t="n">
-        <v>3.856636568700236e-05</v>
+        <v>3.853920030636755e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.004645228219282e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>9.551631054249571e-07</v>
+        <v>9.769775834783403e-07</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.549194653953674e-06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.94838725300399</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.4222115376823316</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9896774506007979</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +616,25 @@
         <v>4.01911</v>
       </c>
       <c r="B10" t="n">
-        <v>3.814379476227142e-05</v>
+        <v>3.813027470336371e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-1.687408107593305e-07</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.482327338961167e-07</v>
+        <v>9.429044302918828e-07</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.478493757531823e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.537545542684893</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.6177142816194241</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.7075091085369786</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +642,25 @@
         <v>4.01992</v>
       </c>
       <c r="B11" t="n">
-        <v>3.557896392061834e-05</v>
+        <v>3.54494628671896e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.146228800100732e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.55308654404698e-07</v>
+        <v>9.575411069471785e-07</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.499220260345383e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.594339687856825</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4673611814402719</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9188679375713651</v>
       </c>
     </row>
     <row r="12">
@@ -528,13 +668,25 @@
         <v>4.02504</v>
       </c>
       <c r="B12" t="n">
-        <v>3.476474347616009e-05</v>
+        <v>3.478990214732896e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-9.799600706253713e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.350776362137351e-06</v>
+        <v>9.401906147803597e-07</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.433414950385833e-06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.397499045587345</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.09422159822715959</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.879499809117469</v>
       </c>
     </row>
     <row r="13">
@@ -542,13 +694,25 @@
         <v>4.02998</v>
       </c>
       <c r="B13" t="n">
-        <v>2.990271149008597e-05</v>
+        <v>2.986986874030578e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-6.156871218901004e-07</v>
       </c>
       <c r="D13" t="n">
-        <v>-7.260488555680927e-07</v>
+        <v>7.88708212722009e-07</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.22633455830673e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.522466483599896</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.4768831389004593</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9044932967199791</v>
       </c>
     </row>
     <row r="14">
@@ -556,13 +720,25 @@
         <v>4.03514</v>
       </c>
       <c r="B14" t="n">
-        <v>2.316204276670733e-05</v>
+        <v>2.318183685045408e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.556766620531167e-07</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.864261253151534e-07</v>
+        <v>6.492562810882512e-07</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.000494504384794e-06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.66869510691917</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01785667551135994</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.733739021383835</v>
       </c>
     </row>
     <row r="15">
@@ -570,13 +746,25 @@
         <v>4.26996</v>
       </c>
       <c r="B15" t="n">
-        <v>1.321499970003572e-05</v>
+        <v>1.321747293496369e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3.286944177586174e-07</v>
       </c>
       <c r="D15" t="n">
-        <v>3.755276341988658e-07</v>
+        <v>4.343154163802874e-07</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.950730283813669e-07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.698528858920945</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8890850460817327</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.339705771784189</v>
       </c>
     </row>
     <row r="16">
@@ -584,13 +772,25 @@
         <v>4.29005</v>
       </c>
       <c r="B16" t="n">
-        <v>1.856551437288019e-05</v>
+        <v>1.850935028847368e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.281218903850597e-06</v>
       </c>
       <c r="D16" t="n">
-        <v>1.227531968441694e-06</v>
+        <v>5.693149356589506e-07</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9.065350596576287e-07</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.405198683218428</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.923743749077045</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2810397366436855</v>
       </c>
     </row>
     <row r="17">
@@ -598,13 +798,25 @@
         <v>4.291119999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>2.529922040634705e-05</v>
+        <v>2.522400818434317e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5.09173149941136e-06</v>
       </c>
       <c r="D17" t="n">
-        <v>5.074941714122598e-06</v>
+        <v>7.516308778645914e-07</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.243069928954106e-06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.240042204665045</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.283557553164294</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.248008440933009</v>
       </c>
     </row>
     <row r="18">
@@ -612,13 +824,25 @@
         <v>4.29319</v>
       </c>
       <c r="B18" t="n">
-        <v>3.082403548165534e-05</v>
+        <v>3.089009859583069e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>6.078230408275472e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>5.948681587391713e-06</v>
+        <v>8.733607177912032e-07</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.482395825183438e-06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5.265358333932177</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3843611450649091</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.053071666786435</v>
       </c>
     </row>
     <row r="19">
@@ -626,13 +850,25 @@
         <v>4.2942</v>
       </c>
       <c r="B19" t="n">
-        <v>3.532510837904743e-05</v>
+        <v>3.526613227676796e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.300394534044162e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>7.162303774020024e-06</v>
+        <v>9.795206831778198e-07</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.648722314469673e-06</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5.537121924304252</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3538924959827369</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.10742438486085</v>
       </c>
     </row>
     <row r="20">
@@ -640,13 +876,25 @@
         <v>4.29515</v>
       </c>
       <c r="B20" t="n">
-        <v>4.27440557087873e-05</v>
+        <v>4.264651588727659e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.122860603427268e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.095041296861118e-05</v>
+        <v>1.141184490336341e-06</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.978467592028322e-06</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.47533864682765</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6271224470261334</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6950677293655301</v>
       </c>
     </row>
     <row r="21">
@@ -654,13 +902,25 @@
         <v>4.29615</v>
       </c>
       <c r="B21" t="n">
-        <v>4.640389737066296e-05</v>
+        <v>4.632203748618072e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.338347757591824e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.332926046565569e-05</v>
+        <v>1.258632400957936e-06</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.137188678398688e-06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.946881799515569</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3114219184347848</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.189376359903114</v>
       </c>
     </row>
     <row r="22">
@@ -668,13 +928,25 @@
         <v>4.297219999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>7.234669770358393e-05</v>
+        <v>7.226151806603719e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.735328370706641e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1.724559179438425e-05</v>
+        <v>1.842339905904836e-06</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.15524391498026e-06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.387028492210217</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6405462607571676</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6774056984420433</v>
       </c>
     </row>
     <row r="23">
@@ -682,13 +954,25 @@
         <v>4.298080000000001</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002077471372550903</v>
+        <v>0.0002074844836460075</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>7.285385307500657e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>7.223361223586746e-05</v>
+        <v>5.038232179662904e-06</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9.022023330538316e-06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.135703211416786</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9508950242132528</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2271406422833572</v>
       </c>
     </row>
     <row r="24">
@@ -696,13 +980,25 @@
         <v>4.299090000000001</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003282725027580739</v>
+        <v>0.0003279283698658743</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.0001155541587205529</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001155409663300393</v>
+        <v>7.839975017698682e-06</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.397172303879999e-05</v>
+      </c>
+      <c r="F24" t="n">
+        <v>3.091251180778169</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.685919903653002</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.6182502361556338</v>
       </c>
     </row>
     <row r="25">
@@ -710,13 +1006,25 @@
         <v>4.30105</v>
       </c>
       <c r="B25" t="n">
-        <v>0.000492102873069997</v>
+        <v>0.0004920814685676157</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.0001395951833332132</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001397428715088088</v>
+        <v>1.161591062204746e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.027714225809619e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.374791920601783</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.7952220894070732</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.4749583841203567</v>
       </c>
     </row>
     <row r="26">
@@ -724,13 +1032,25 @@
         <v>4.3031</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0004950904920740101</v>
+        <v>0.000495420509209001</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.0001600209904769283</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001596976716928935</v>
+        <v>1.139385062301811e-05</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.027594024049169e-05</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.855844371542741</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.722198657979908</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5711688743085481</v>
       </c>
     </row>
     <row r="27">
@@ -738,13 +1058,25 @@
         <v>4.30523</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0004584605184971522</v>
+        <v>0.0004586163039670962</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.0001381614207553066</v>
       </c>
       <c r="D27" t="n">
-        <v>0.000139215750013445</v>
+        <v>1.079521323755632e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.891634563000753e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>5.232261095935486</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3881973967251127</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.046452219187097</v>
       </c>
     </row>
     <row r="28">
@@ -752,13 +1084,25 @@
         <v>4.30725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0004377632027450836</v>
+        <v>0.0004375325363946112</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0001372566071858604</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001366818659315673</v>
+        <v>1.053635567424978e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.853927138477011e-05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3.79746122600509</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.578929390580414</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7594922452010179</v>
       </c>
     </row>
     <row r="29">
@@ -766,13 +1110,25 @@
         <v>4.3093</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0004401522215783776</v>
+        <v>0.0004399625145888817</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.0001315252823816083</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001322200149551424</v>
+        <v>1.057069753668433e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.846288927871981e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.62527048969224</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.6045230790566561</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.725054097938448</v>
       </c>
     </row>
     <row r="30">
@@ -780,13 +1136,25 @@
         <v>4.30996</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0004475496815735068</v>
+        <v>0.0004472277039688203</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.0001217056277997604</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001216384275180571</v>
+        <v>1.055465660223048e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.839906017777679e-05</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.158302534340033</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8268355931691322</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.4316605068680067</v>
       </c>
     </row>
     <row r="31">
@@ -794,13 +1162,25 @@
         <v>4.31117</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0004291231280002633</v>
+        <v>0.0004290908590120553</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.0001220696402282588</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001222514290908755</v>
+        <v>1.016966875346722e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.774927683679655e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.505515099321627</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.4791458760173415</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9011030198643255</v>
       </c>
     </row>
     <row r="32">
@@ -808,13 +1188,25 @@
         <v>4.31311</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0004348722317586468</v>
+        <v>0.0004347550398645225</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.000138229540767456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001387899151421254</v>
+        <v>1.027620020067227e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.812472046447042e-05</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.073340898825862</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6886797808616498</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6146681797651724</v>
       </c>
     </row>
     <row r="33">
@@ -822,13 +1214,25 @@
         <v>4.31513</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0004308526270581113</v>
+        <v>0.0004307426858364477</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.0001511540905525172</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001517698520066999</v>
+        <v>1.027076705732807e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.825904251842267e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5.111592856052662</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.4024137278943338</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.022318571210532</v>
       </c>
     </row>
     <row r="34">
@@ -836,13 +1240,25 @@
         <v>4.3172</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0004222785810106237</v>
+        <v>0.0004219283184617169</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>0.00012213978623706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.000120736666355425</v>
+        <v>9.962416363506917e-06</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.754134412754308e-05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.931815257872947</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.7104972087762759</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5863630515745893</v>
       </c>
     </row>
     <row r="35">
@@ -850,13 +1266,25 @@
         <v>4.31917</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0004122347175962416</v>
+        <v>0.0004120821919444276</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.0001263074065957389</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001258038924524164</v>
+        <v>9.959965984980591e-06</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.752149198179366e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.10357377953332</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8346360072084855</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.4207147559066639</v>
       </c>
     </row>
     <row r="36">
@@ -864,13 +1292,25 @@
         <v>4.32116</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0003822497226052811</v>
+        <v>0.0003821530504762069</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.0001188947033493574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001182643555193797</v>
+        <v>9.085515822789474e-06</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.600971343148741e-05</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.273498177082954</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3834218365158372</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.054699635416591</v>
       </c>
     </row>
     <row r="37">
@@ -878,13 +1318,25 @@
         <v>4.32298</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0003475959587974022</v>
+        <v>0.0003476188492904153</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.0001119218440347924</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000111194960945807</v>
+        <v>8.229419829218299e-06</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.457045891762132e-05</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6.026085929672243</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3036889146727926</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.205217185934449</v>
       </c>
     </row>
     <row r="38">
@@ -892,13 +1344,25 @@
         <v>4.32521</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0002819172824704519</v>
+        <v>0.0002818030096169704</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>9.032783956646732e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>9.032654406360274e-05</v>
+        <v>6.621579644400336e-06</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.170785630494798e-05</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4.195141879086061</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.521676135522993</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8390283758172122</v>
       </c>
     </row>
     <row r="39">
@@ -906,13 +1370,25 @@
         <v>4.32711</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0002250618831850659</v>
+        <v>0.0002250153465253383</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>6.484882472617739e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>6.488680396819175e-05</v>
+        <v>5.286380748898688e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>9.260336357613045e-06</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3.273698094633146</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.657870835254177</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.6547396189266292</v>
       </c>
     </row>
     <row r="40">
@@ -920,13 +1396,25 @@
         <v>4.32908</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001515924106468008</v>
+        <v>0.0001516043862405291</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>5.203597495724095e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>5.20767084258862e-05</v>
+        <v>3.577332886756744e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>6.374864396418454e-06</v>
+      </c>
+      <c r="F40" t="n">
+        <v>5.572799985548898</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.350029117760839</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.11455999710978</v>
       </c>
     </row>
     <row r="41">
@@ -934,13 +1422,25 @@
         <v>4.33012</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0002146206147980481</v>
+        <v>0.0002144822703593251</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.392155852970225e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>6.401071318510368e-05</v>
+        <v>5.148769653526597e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9.037207221456679e-06</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.906718422591912</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.8618959320343611</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.3813436845183824</v>
       </c>
     </row>
     <row r="42">
@@ -948,13 +1448,25 @@
         <v>4.33119</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0001077755104052682</v>
+        <v>0.0001076062041545801</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.387060839503379e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>3.386798919354827e-05</v>
+        <v>2.63238651241328e-06</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4.626959179572624e-06</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.226359988828264</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6651333999095734</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6452719977656528</v>
       </c>
     </row>
     <row r="43">
@@ -962,13 +1474,25 @@
         <v>4.33324</v>
       </c>
       <c r="B43" t="n">
-        <v>7.297555445768069e-05</v>
+        <v>7.304530763800183e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.480319202155109e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>1.504046765543316e-05</v>
+        <v>1.826747765582256e-06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.095887616231071e-06</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.693600444549325</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.8897050061351929</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.3387200889098649</v>
       </c>
     </row>
     <row r="44">
@@ -976,13 +1500,25 @@
         <v>4.33515</v>
       </c>
       <c r="B44" t="n">
-        <v>5.564179076604959e-05</v>
+        <v>5.555962653319326e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1.146201829665665e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>1.145813085792412e-05</v>
+        <v>1.409342797440744e-06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2.384834470221155e-06</v>
+      </c>
+      <c r="F44" t="n">
+        <v>4.011536897147857</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5477561166490083</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8023073794295714</v>
       </c>
     </row>
     <row r="45">
@@ -990,13 +1526,25 @@
         <v>4.34004</v>
       </c>
       <c r="B45" t="n">
-        <v>3.347710034206734e-05</v>
+        <v>3.342314753084469e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7.836628944040245e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>7.837210888717786e-06</v>
+        <v>9.145757873764909e-07</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.566900956220722e-06</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.619425104740763</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.7584116939157833</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.5238850209481527</v>
       </c>
     </row>
     <row r="46">
@@ -1004,13 +1552,25 @@
         <v>4.34488</v>
       </c>
       <c r="B46" t="n">
-        <v>2.953151140767997e-05</v>
+        <v>2.951918661763874e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.099028226702481e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>2.014133773513744e-06</v>
+        <v>8.615238267711844e-07</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.372887244485925e-06</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.489461600938291</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.09106305007903326</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1.897892320187658</v>
       </c>
     </row>
     <row r="47">
@@ -1018,13 +1578,25 @@
         <v>4.34998</v>
       </c>
       <c r="B47" t="n">
-        <v>2.809262156185326e-05</v>
+        <v>2.810767443087114e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2.40710052808061e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>2.485282550284697e-06</v>
+        <v>7.93590788442157e-07</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.273572032294042e-06</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4.107406761011487</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5340580332903264</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8214813522022973</v>
       </c>
     </row>
     <row r="48">
@@ -1032,13 +1604,25 @@
         <v>4.37005</v>
       </c>
       <c r="B48" t="n">
-        <v>3.035840772699484e-05</v>
+        <v>3.046176367481638e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>-4.692376266785729e-07</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.631415374743496e-07</v>
+        <v>8.40044539885301e-07</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.300313795078216e-06</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8.620115210865009</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.1252100672719406</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.724023042173002</v>
       </c>
     </row>
     <row r="49">
@@ -1046,13 +1630,25 @@
         <v>4.39015</v>
       </c>
       <c r="B49" t="n">
-        <v>3.9978574235067e-05</v>
+        <v>4.00811164477465e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>-1.224966421081006e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>-1.005445021405335e-06</v>
+        <v>1.062573585256374e-06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.685054025629787e-06</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.780089813057069</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.7338444269651352</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5560179626114137</v>
       </c>
     </row>
     <row r="50">
@@ -1060,13 +1656,25 @@
         <v>4.41003</v>
       </c>
       <c r="B50" t="n">
-        <v>5.462722505191987e-05</v>
+        <v>5.461375449934427e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-2.713226277978667e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.784452225300178e-06</v>
+        <v>1.405592408932911e-06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2.199778263060204e-06</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4.674233336743333</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.4569152208799103</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9348466673486666</v>
       </c>
     </row>
     <row r="51">
@@ -1074,13 +1682,25 @@
         <v>4.42024</v>
       </c>
       <c r="B51" t="n">
-        <v>7.945066750292139e-05</v>
+        <v>7.941102044357332e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-3.980823191623481e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.356097641006294e-06</v>
+        <v>1.998666636680572e-06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.103144071711724e-06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>6.30393092446682</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.2777582166886883</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1.260786184893364</v>
       </c>
     </row>
     <row r="52">
@@ -1088,13 +1708,25 @@
         <v>4.43018</v>
       </c>
       <c r="B52" t="n">
-        <v>9.977823737169289e-05</v>
+        <v>9.970180349116148e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-7.242898013664565e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.351042074874055e-06</v>
+        <v>2.417120597402709e-06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.739750760155411e-06</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.672349407133679</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.892364683621088</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.3344698814267358</v>
       </c>
     </row>
     <row r="53">
@@ -1102,13 +1734,25 @@
         <v>4.44004</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001885426294360392</v>
+        <v>0.0001884631992935515</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>-1.409513382221974e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>-1.451731038673231e-05</v>
+        <v>4.728521273695759e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>7.318885471123467e-06</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3.04294012419389</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.6933656500381635</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.6085880248387779</v>
       </c>
     </row>
     <row r="54">
@@ -1116,13 +1760,25 @@
         <v>4.44994</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0002951397213292746</v>
+        <v>0.0002949729409954861</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-3.432505375493413e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.449836915624254e-05</v>
+        <v>7.21934356315002e-06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1.096973157030191e-05</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.056135750784686</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.9579121582555723</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.2112271501569371</v>
       </c>
     </row>
     <row r="55">
@@ -1130,13 +1786,25 @@
         <v>4.45499</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006951505440480342</v>
+        <v>0.0006950058230278675</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>-8.114924083086337e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.041747133874799e-05</v>
+        <v>1.730305906814208e-05</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2.640512797432509e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.7651178356292462</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.9792046823919637</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.1530235671258492</v>
       </c>
     </row>
     <row r="56">
@@ -1144,13 +1812,25 @@
         <v>4.46012</v>
       </c>
       <c r="B56" t="n">
-        <v>0.001034677992158463</v>
+        <v>0.001034268197184892</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>-9.48684143764661e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>-9.669789189637628e-05</v>
+        <v>2.508088959499737e-05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.865536472750195e-05</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3.081241532000245</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.6874622551848406</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.6162483064000489</v>
       </c>
     </row>
     <row r="57">
@@ -1158,13 +1838,25 @@
         <v>4.469959999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.001089409459665151</v>
+        <v>0.001090394314413877</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.0001352533527727762</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.0001374180216999379</v>
+        <v>2.601672655197242e-05</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.961768399546585e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>5.198478922335862</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3921410676903253</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1.039695784467172</v>
       </c>
     </row>
     <row r="58">
@@ -1172,13 +1864,25 @@
         <v>4.477980000000001</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0008064947918913675</v>
+        <v>0.0008064168678549776</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>-8.717512488570106e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.775271724375745e-05</v>
+        <v>1.96860955175609e-05</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.020332793813328e-05</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.883160208307028</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.7179932684851629</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.5766320416614057</v>
       </c>
     </row>
     <row r="59">
@@ -1186,13 +1890,25 @@
         <v>4.48613</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0003834085059252443</v>
+        <v>0.00038309912558978</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-3.685009028846036e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.771176867358447e-05</v>
+        <v>9.458676732766111e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1.443770373690852e-05</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4.028537747189151</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.5453145748651433</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8057075494378303</v>
       </c>
     </row>
     <row r="60">
@@ -1200,13 +1916,25 @@
         <v>4.48819</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002837249730888281</v>
+        <v>0.0002834569498543188</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>-2.910203927765896e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.955787123848402e-05</v>
+        <v>7.096601169244026e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1.086861648445754e-05</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.447071246639257</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.784444289720938</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.4894142493278514</v>
       </c>
     </row>
     <row r="61">
@@ -1214,13 +1942,25 @@
         <v>4.490069999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0003747449634915488</v>
+        <v>0.0003749275649975854</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>-4.448384600875752e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.49121710277049e-05</v>
+        <v>9.151044349438919e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1.398648019665617e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4.086248468809169</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.5370663639158816</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8172496937618338</v>
       </c>
     </row>
     <row r="62">
@@ -1228,13 +1968,25 @@
         <v>4.49222</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0001445047677756603</v>
+        <v>0.0001443526018944515</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>-8.30351287478472e-06</v>
       </c>
       <c r="D62" t="n">
-        <v>-8.594331585128713e-06</v>
+        <v>3.673764381533612e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.725624906353872e-06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4.497946114421171</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.4801582879954797</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8995892228842342</v>
       </c>
     </row>
     <row r="63">
@@ -1242,13 +1994,25 @@
         <v>4.49499</v>
       </c>
       <c r="B63" t="n">
-        <v>9.695620356456978e-05</v>
+        <v>9.686145042496685e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>-1.334110928803115e-06</v>
       </c>
       <c r="D63" t="n">
-        <v>-1.475391829848979e-06</v>
+        <v>2.409727854773588e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.803656247052428e-06</v>
+      </c>
+      <c r="F63" t="n">
+        <v>3.914548621856068</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5617834022230193</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.7829097243712135</v>
       </c>
     </row>
     <row r="64">
@@ -1256,13 +2020,25 @@
         <v>4.499969999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>5.511937856939759e-05</v>
+        <v>5.498409287016039e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4.52591963002901e-06</v>
       </c>
       <c r="D64" t="n">
-        <v>4.360105080134495e-06</v>
+        <v>1.445506076044846e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2.357065710659063e-06</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4.728304298083852</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.4499295822117099</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9456608596167705</v>
       </c>
     </row>
     <row r="65">
@@ -1270,13 +2046,25 @@
         <v>4.51021</v>
       </c>
       <c r="B65" t="n">
-        <v>4.140362566210417e-05</v>
+        <v>4.15522496202071e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>4.213945298945551e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>4.477070470486222e-06</v>
+        <v>1.098991225348183e-06</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1.821744767533981e-06</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.839711885360585</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.7246809982177079</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.567942377072117</v>
       </c>
     </row>
     <row r="66">
@@ -1284,13 +2072,25 @@
         <v>4.51218</v>
       </c>
       <c r="B66" t="n">
-        <v>9.540297154987358e-05</v>
+        <v>9.528096883009396e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>2.570342855029424e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>2.557692725970594e-05</v>
+        <v>2.405994779775346e-06</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4.185666764431898e-06</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.878227362387465</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.8657249884150674</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.375645472477493</v>
       </c>
     </row>
     <row r="67">
@@ -1298,13 +2098,25 @@
         <v>4.51508</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002747582921615228</v>
+        <v>0.00027462004608771</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>7.927264223539764e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>7.889443900788352e-05</v>
+        <v>6.694434494276538e-06</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1.167565022663202e-05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>5.064524761316433</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.4080564030167613</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1.012904952263287</v>
       </c>
     </row>
     <row r="68">
@@ -1312,13 +2124,25 @@
         <v>4.52007</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004824148806923668</v>
+        <v>0.0004821238598124973</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.0001165420224080176</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0001155474075573942</v>
+        <v>1.1321728815544e-05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.968211071358938e-05</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.970184369378625</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.8532550327235917</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.3940368738757249</v>
       </c>
     </row>
     <row r="69">
@@ -1326,13 +2150,25 @@
         <v>4.52524</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0008729103892239016</v>
+        <v>0.0008732187177481978</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>0.0001759272198904473</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0001725726865010411</v>
+        <v>2.059955212758748e-05</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.51666326515174e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>5.318573481448468</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.3782501279475505</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.063714696289694</v>
       </c>
     </row>
     <row r="70">
@@ -1340,13 +2176,25 @@
         <v>4.529409999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0008728401326305663</v>
+        <v>0.0008727126516192899</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.0001869940214833465</v>
       </c>
       <c r="D70" t="n">
-        <v>0.000185924060366605</v>
+        <v>1.977511910795274e-05</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.41045647047735e-05</v>
+      </c>
+      <c r="F70" t="n">
+        <v>2.399697357929</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.7915191891228954</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.4799394715857999</v>
       </c>
     </row>
     <row r="71">
@@ -1354,13 +2202,25 @@
         <v>4.53506</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001523999470125692</v>
+        <v>0.001523310286843598</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.0002752573567463307</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0002729928073632969</v>
+        <v>3.499427860988376e-05</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.966110146534322e-05</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.6560343721076</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.8943914580353295</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.3312068744215201</v>
       </c>
     </row>
     <row r="72">
@@ -1368,13 +2228,25 @@
         <v>4.54024</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001689170468922373</v>
+        <v>0.001688898446406621</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.0002684124947803072</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0002642034874879041</v>
+        <v>4.00368300563851e-05</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.733866978760251e-05</v>
+      </c>
+      <c r="F72" t="n">
+        <v>3.225723033050421</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.6652312085011609</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.6451446066100841</v>
       </c>
     </row>
     <row r="73">
@@ -1382,13 +2254,25 @@
         <v>4.5498</v>
       </c>
       <c r="B73" t="n">
-        <v>0.00217721091052516</v>
+        <v>0.002178292359697247</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>0.0001367547908177039</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001360334340385817</v>
+        <v>4.680847490061552e-05</v>
+      </c>
+      <c r="E73" t="n">
+        <v>7.686541330197395e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.339610673548171</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.9308034781807543</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.2679221347096342</v>
       </c>
     </row>
     <row r="74">
@@ -1396,13 +2280,25 @@
         <v>4.56018</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003296454064278239</v>
+        <v>0.003299595823997168</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>-7.021776680670583e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.27366480549607e-05</v>
+        <v>7.347044795654078e-05</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0001169185225756102</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.248182037204658</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.5142648535254469</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.8496364074409316</v>
       </c>
     </row>
     <row r="75">
@@ -1410,13 +2306,25 @@
         <v>4.570130000000001</v>
       </c>
       <c r="B75" t="n">
-        <v>0.003041809988176068</v>
+        <v>0.003044235001703693</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0.0001309531659497661</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.0001444580253787186</v>
+        <v>6.849388861403615e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0001081538676015143</v>
+      </c>
+      <c r="F75" t="n">
+        <v>4.047663866498273</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.5425741464759841</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.8095327732996547</v>
       </c>
     </row>
     <row r="76">
@@ -1424,13 +2332,25 @@
         <v>4.580030000000001</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001552516054941871</v>
+        <v>0.00155264845931267</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-6.495471739849726e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.911925630242891e-05</v>
+        <v>3.717184480612735e-05</v>
+      </c>
+      <c r="E76" t="n">
+        <v>5.831402277774715e-05</v>
+      </c>
+      <c r="F76" t="n">
+        <v>4.748352915559792</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.4473568429155289</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.9496705831119584</v>
       </c>
     </row>
     <row r="77">
@@ -1438,13 +2358,25 @@
         <v>4.59008</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0008306981324272853</v>
+        <v>0.0008312018768874593</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-3.466449559406482e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>-3.45402448952461e-05</v>
+        <v>1.974316683361173e-05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.103054452160408e-05</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.444744359618711</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.9193568645724813</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.2889488719237422</v>
       </c>
     </row>
     <row r="78">
@@ -1452,13 +2384,25 @@
         <v>4.60027</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0006728994571350857</v>
+        <v>0.0006725699451283915</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8.630024532621603e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>8.510392071815695e-05</v>
+        <v>1.601354927319789e-05</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2.658698203657511e-05</v>
+      </c>
+      <c r="F78" t="n">
+        <v>3.03464873173035</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.6946438601172662</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.6069297463460701</v>
       </c>
     </row>
     <row r="79">
@@ -1466,13 +2410,25 @@
         <v>4.60999</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001514256728119439</v>
+        <v>0.001514886081047422</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.0003351520906384717</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0003331946749732473</v>
+        <v>3.404026560848066e-05</v>
+      </c>
+      <c r="E79" t="n">
+        <v>5.877868798668328e-05</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.535192397657004</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.7711859502614861</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.5070384795314007</v>
       </c>
     </row>
     <row r="80">
@@ -1480,13 +2436,25 @@
         <v>4.62023</v>
       </c>
       <c r="B80" t="n">
-        <v>0.001696948162925254</v>
+        <v>0.001699264983915735</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.0004201925627004597</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0004195272947122101</v>
+        <v>3.92775565952002e-05</v>
+      </c>
+      <c r="E80" t="n">
+        <v>6.820631692289115e-05</v>
+      </c>
+      <c r="F80" t="n">
+        <v>3.688185563956904</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.5951231049847572</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.7376371127913808</v>
       </c>
     </row>
     <row r="81">
@@ -1494,13 +2462,25 @@
         <v>4.62994</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001230966455318998</v>
+        <v>0.001231448881416102</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>0.0003609388264564603</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0003666278201355748</v>
+        <v>2.765019325165822e-05</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4.85194461780994e-05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.772097680686422</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.8796944064735981</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.3544195361372844</v>
       </c>
     </row>
     <row r="82">
@@ -1508,13 +2488,25 @@
         <v>4.63517</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0006544646726533412</v>
+        <v>0.0006543384203226773</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.0001403920571427427</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001409746330800011</v>
+        <v>1.547496262530584e-05</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2.635145037625501e-05</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2.566007296734909</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.7665230781237045</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.5132014593469818</v>
       </c>
     </row>
     <row r="83">
@@ -1522,13 +2514,25 @@
         <v>4.639959999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>0.000387539160642968</v>
+        <v>0.0003876653898254187</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>6.526205328548774e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>6.576415929829385e-05</v>
+        <v>9.403489962116387e-06</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.568814674589117e-05</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2.796000763166299</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.7314008982796364</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.5592001526332598</v>
       </c>
     </row>
     <row r="84">
@@ -1536,13 +2540,25 @@
         <v>4.64996</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0003225097011550881</v>
+        <v>0.0003223075564710462</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>3.563124219577437e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>3.404421218859498e-05</v>
+        <v>7.938152427714686e-06</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.314044662953849e-05</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5.363031670876327</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.3731987523410313</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.072606334175265</v>
       </c>
     </row>
     <row r="85">
@@ -1550,13 +2566,25 @@
         <v>4.67012</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0001666069196871021</v>
+        <v>0.0001665586017493058</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>2.01435192103179e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>2.003371274660035e-05</v>
+        <v>4.171549415261218e-06</v>
+      </c>
+      <c r="E85" t="n">
+        <v>6.820782773629068e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.8685763077671954</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.9724547339145843</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.1737152615534391</v>
       </c>
     </row>
     <row r="86">
@@ -1564,13 +2592,25 @@
         <v>4.68015</v>
       </c>
       <c r="B86" t="n">
-        <v>8.756096647094555e-05</v>
+        <v>8.763542488436043e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1.101666903666026e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>1.100162376768384e-05</v>
+        <v>2.352690071631621e-06</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.841066090405603e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>3.69567113630126</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.5940082931734371</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.7391342272602521</v>
       </c>
     </row>
     <row r="87">
@@ -1578,13 +2618,25 @@
         <v>4.68993</v>
       </c>
       <c r="B87" t="n">
-        <v>6.714141177543512e-05</v>
+        <v>6.710857730458575e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>7.992076104578254e-06</v>
       </c>
       <c r="D87" t="n">
-        <v>7.981189147738562e-06</v>
+        <v>1.799537118628775e-06</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.937132029864734e-06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.137308902029429</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.6788263393597187</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.6274617804058858</v>
       </c>
     </row>
     <row r="88">
@@ -1592,13 +2644,25 @@
         <v>4.71002</v>
       </c>
       <c r="B88" t="n">
-        <v>5.445320839979789e-05</v>
+        <v>5.439816353170118e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>5.678056636706171e-06</v>
       </c>
       <c r="D88" t="n">
-        <v>5.591103620892063e-06</v>
+        <v>1.384269167635277e-06</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.292309998513076e-06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.87120913788756</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.8666632628484277</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.374241827577512</v>
       </c>
     </row>
     <row r="89">
@@ -1606,13 +2670,25 @@
         <v>4.73</v>
       </c>
       <c r="B89" t="n">
-        <v>4.979961885910356e-05</v>
+        <v>4.977018475261732e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>7.921618855857599e-06</v>
       </c>
       <c r="D89" t="n">
-        <v>7.862881855474942e-06</v>
+        <v>1.368596300267605e-06</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.249902768857753e-06</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.8216557786012882</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.9756315546019847</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.1643311557202576</v>
       </c>
     </row>
     <row r="90">
@@ -1620,13 +2696,25 @@
         <v>4.75</v>
       </c>
       <c r="B90" t="n">
-        <v>6.83942368761985e-05</v>
+        <v>6.823839827111041e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1.070492580860692e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>1.065173098708053e-05</v>
+        <v>1.871343949907611e-06</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.098961250631694e-06</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.77299471058226</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.8795783715953144</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.3545989421164519</v>
       </c>
     </row>
     <row r="91">
@@ -1634,13 +2722,25 @@
         <v>4.75518</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000121824712021285</v>
+        <v>0.0001217656604371637</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1.614238590654401e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>1.588889213042966e-05</v>
+        <v>3.323979063197566e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5.450708607399394e-06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.956179742073024</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5557421324155962</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.7912359484146048</v>
       </c>
     </row>
     <row r="92">
@@ -1648,13 +2748,25 @@
         <v>4.75888</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001388655181494848</v>
+        <v>0.000138710323279078</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1.336896684799697e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>1.328386130684983e-05</v>
+        <v>3.674114287561118e-06</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5.919741735664353e-06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>2.676053615423338</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.7497784235460684</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.5352107230846676</v>
       </c>
     </row>
     <row r="93">
@@ -1662,13 +2774,25 @@
         <v>4.77004</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001691853844740245</v>
+        <v>0.0001688156860785783</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>2.323889487769146e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>2.302067660243864e-05</v>
+        <v>4.392732325163261e-06</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.244563862513586e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>2.4285703145523</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.7872119803593788</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.48571406291046</v>
       </c>
     </row>
     <row r="94">
@@ -1676,13 +2800,25 @@
         <v>4.77502</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0002558884060070853</v>
+        <v>0.000255590833902877</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4.023668764047207e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>3.993254068946978e-05</v>
+        <v>6.35254104758398e-06</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.061253309994462e-05</v>
+      </c>
+      <c r="F94" t="n">
+        <v>2.649381336962142</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.7538487771132638</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.5298762673924283</v>
       </c>
     </row>
     <row r="95">
@@ -1690,13 +2826,25 @@
         <v>4.780180000000001</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0005348763610029896</v>
+        <v>0.0005357917584890109</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>0.000124590355902024</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001273302534723433</v>
+        <v>1.299252431300548e-05</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.198224156652162e-05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6.167730718370932</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.2902384944290468</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.233546143674186</v>
       </c>
     </row>
     <row r="96">
@@ -1704,13 +2852,25 @@
         <v>4.79012</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0006780888658245695</v>
+        <v>0.0006779690422635537</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.0001578497577001845</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001559515500042396</v>
+        <v>1.565827381563345e-05</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.719216491425556e-05</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2.482603599607497</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.7791126943757669</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.4965207199214993</v>
       </c>
     </row>
     <row r="97">
@@ -1718,13 +2878,25 @@
         <v>4.799919999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>0.00055844095099247</v>
+        <v>0.0005586171542598695</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>0.0001154573475426258</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001151950042700336</v>
+        <v>1.289156588662822e-05</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.217169761235345e-05</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.291540978334003</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9357996946172649</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.2583081956668006</v>
       </c>
     </row>
     <row r="98">
@@ -1732,13 +2904,25 @@
         <v>4.81003</v>
       </c>
       <c r="B98" t="n">
-        <v>0.000268936157224225</v>
+        <v>0.0002688094193977435</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>6.28016934634022e-05</v>
       </c>
       <c r="D98" t="n">
-        <v>6.178737766045746e-05</v>
+        <v>6.831268913125372e-06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.183324447804451e-05</v>
+      </c>
+      <c r="F98" t="n">
+        <v>2.933135434272991</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.7102937420514703</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.5866270868545982</v>
       </c>
     </row>
     <row r="99">
@@ -1746,13 +2930,25 @@
         <v>4.81216</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001294851452912783</v>
+        <v>0.0001292333247468629</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>3.231151437859317e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>3.217810303796433e-05</v>
+        <v>3.511450366152369e-06</v>
+      </c>
+      <c r="E99" t="n">
+        <v>6.045437064388347e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.5166572749042575</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.9915006654703531</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.1033314549808515</v>
       </c>
     </row>
     <row r="100">
@@ -1760,13 +2956,25 @@
         <v>4.81527</v>
       </c>
       <c r="B100" t="n">
-        <v>8.030927797341458e-05</v>
+        <v>8.013980226359964e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>2.198339705109452e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>2.180155048955671e-05</v>
+        <v>2.226667660885532e-06</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.853361667813723e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.590884082553412</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.9023495259317241</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.3181768165106824</v>
       </c>
     </row>
     <row r="101">
@@ -1774,13 +2982,25 @@
         <v>4.82006</v>
       </c>
       <c r="B101" t="n">
-        <v>4.318873040173549e-05</v>
+        <v>4.326937610716203e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>9.616760036807539e-06</v>
       </c>
       <c r="D101" t="n">
-        <v>9.662075531129286e-06</v>
+        <v>1.268325714864947e-06</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.127965542257229e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.240479740986004</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.9409354384270254</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.2480959481972007</v>
       </c>
     </row>
     <row r="102">
@@ -1788,13 +3008,25 @@
         <v>4.82989</v>
       </c>
       <c r="B102" t="n">
-        <v>2.796640446647868e-05</v>
+        <v>2.807797387606143e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>3.308807462202583e-06</v>
       </c>
       <c r="D102" t="n">
-        <v>3.519320845329872e-06</v>
+        <v>8.133005748168787e-07</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.340942779603205e-06</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.906513192462519</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8619236274796229</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.3813026384925039</v>
       </c>
     </row>
     <row r="103">
@@ -1802,13 +3034,25 @@
         <v>4.85003</v>
       </c>
       <c r="B103" t="n">
-        <v>2.022211696040719e-05</v>
+        <v>2.028575626847515e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2.798248412464778e-06</v>
       </c>
       <c r="D103" t="n">
-        <v>2.899751067557682e-06</v>
+        <v>6.664291665981159e-07</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.107907075966412e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6.666358938264094</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.2466592820193686</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.333271787652819</v>
       </c>
     </row>
     <row r="104">
@@ -1816,13 +3060,25 @@
         <v>4.86629</v>
       </c>
       <c r="B104" t="n">
-        <v>1.989892324647129e-05</v>
+        <v>1.991856446244891e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>3.877452345331668e-06</v>
       </c>
       <c r="D104" t="n">
-        <v>3.992340879470706e-06</v>
+        <v>6.942470393791759e-07</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.17071419434984e-06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2.569221192677759</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.7660360378252991</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.5138442385355517</v>
       </c>
     </row>
     <row r="105">
@@ -1830,13 +3086,25 @@
         <v>4.88989</v>
       </c>
       <c r="B105" t="n">
-        <v>2.291337933527376e-05</v>
+        <v>2.300903090784873e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>4.50934951952189e-06</v>
       </c>
       <c r="D105" t="n">
-        <v>4.499191598321633e-06</v>
+        <v>6.722620227666428e-07</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.148695542142752e-06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>6.346661254480018</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.27393325756889</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.269332250896004</v>
       </c>
     </row>
     <row r="106">
@@ -1844,13 +3112,25 @@
         <v>4.89991</v>
       </c>
       <c r="B106" t="n">
-        <v>4.279093774514324e-05</v>
+        <v>4.271341543053537e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1.891736023708973e-06</v>
       </c>
       <c r="D106" t="n">
-        <v>1.634085497524347e-06</v>
+        <v>1.309534138476533e-06</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.04847644933008e-06</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3.359040393037859</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.6448154600681859</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.6718080786075717</v>
       </c>
     </row>
     <row r="107">
@@ -1858,13 +3138,25 @@
         <v>4.910130000000001</v>
       </c>
       <c r="B107" t="n">
-        <v>6.252463627986284e-05</v>
+        <v>6.247938300185442e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-2.315559225128059e-06</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.289756626416341e-06</v>
+        <v>1.674361120469079e-06</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.634721552698519e-06</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.47283035739086</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.7805811986327066</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.4945660714781719</v>
       </c>
     </row>
     <row r="108">
@@ -1872,13 +3164,25 @@
         <v>4.91996</v>
       </c>
       <c r="B108" t="n">
-        <v>7.818550357882263e-05</v>
+        <v>7.807310158599218e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>-4.289959345464572e-06</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.863244659799776e-06</v>
+        <v>2.144183281387577e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.296504979364537e-06</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2.552767735629307</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.7685280201987514</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.5105535471258614</v>
       </c>
     </row>
     <row r="109">
@@ -1886,13 +3190,25 @@
         <v>4.92615</v>
       </c>
       <c r="B109" t="n">
-        <v>7.993139802159817e-05</v>
+        <v>8.003436420437702e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-1.299787973740784e-06</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.141245539589285e-06</v>
+        <v>1.952953749782666e-06</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.093890431672741e-06</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.239758392241358</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.9410066975922353</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.2479516784482715</v>
       </c>
     </row>
     <row r="110">
@@ -1900,13 +3216,25 @@
         <v>4.930190000000001</v>
       </c>
       <c r="B110" t="n">
-        <v>8.044348500030626e-05</v>
+        <v>8.054183178048574e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1.959347352384621e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>1.914589349845577e-06</v>
+        <v>2.119978668256311e-06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.402532194230757e-06</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4.414919387542382</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.4913469871535853</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.8829838775084765</v>
       </c>
     </row>
     <row r="111">
@@ -1914,13 +3242,25 @@
         <v>4.93692</v>
       </c>
       <c r="B111" t="n">
-        <v>7.762745446178679e-05</v>
+        <v>7.76126580613337e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>5.302707326216713e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>5.003370883916826e-06</v>
+        <v>1.895663910422268e-06</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.123303872264716e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.796426746126398</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5790818542020812</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.7592853492252797</v>
       </c>
     </row>
     <row r="112">
@@ -1928,13 +3268,25 @@
         <v>4.94675</v>
       </c>
       <c r="B112" t="n">
-        <v>8.0669058729456e-05</v>
+        <v>8.080407586840389e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>3.203374248530281e-06</v>
       </c>
       <c r="D112" t="n">
-        <v>2.870467641315177e-06</v>
+        <v>1.981162508112699e-06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.217599176578725e-06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5.667258537658406</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.3399536500239548</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.133451707531681</v>
       </c>
     </row>
     <row r="113">
@@ -1942,13 +3294,25 @@
         <v>4.95027</v>
       </c>
       <c r="B113" t="n">
-        <v>8.074870052984356e-05</v>
+        <v>8.063469104784812e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1.000102737925426e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>9.637189489711327e-06</v>
+        <v>2.116345824437832e-06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.498994461137175e-06</v>
+      </c>
+      <c r="F113" t="n">
+        <v>4.51952696734581</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.477275055802431</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9039053934691621</v>
       </c>
     </row>
     <row r="114">
@@ -1956,13 +3320,25 @@
         <v>4.95676</v>
       </c>
       <c r="B114" t="n">
-        <v>8.611938091766414e-05</v>
+        <v>8.623954721805632e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>6.37297477632243e-06</v>
       </c>
       <c r="D114" t="n">
-        <v>6.476270622434394e-06</v>
+        <v>2.114181094391105e-06</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.491645475315355e-06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.763704342734127</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8807783712093652</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.3527408685468255</v>
       </c>
     </row>
     <row r="115">
@@ -1970,13 +3346,25 @@
         <v>4.961869999999999</v>
       </c>
       <c r="B115" t="n">
-        <v>9.061257789740662e-05</v>
+        <v>9.063241563097171e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>9.60954363529254e-06</v>
       </c>
       <c r="D115" t="n">
-        <v>9.413170928395735e-06</v>
+        <v>2.18444215137152e-06</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.633191308152441e-06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.395499936223185</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.792144079926306</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.479099987244637</v>
       </c>
     </row>
     <row r="116">
@@ -1984,13 +3372,25 @@
         <v>4.96475</v>
       </c>
       <c r="B116" t="n">
-        <v>9.520833174449579e-05</v>
+        <v>9.52334256792443e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>8.548943878090013e-06</v>
       </c>
       <c r="D116" t="n">
-        <v>8.532095750021107e-06</v>
+        <v>2.322376672859076e-06</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.838935296066027e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.932341953416482</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8584254034584967</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.3864683906832963</v>
       </c>
     </row>
     <row r="117">
@@ -1998,13 +3398,25 @@
         <v>4.96787</v>
       </c>
       <c r="B117" t="n">
-        <v>9.623857141502795e-05</v>
+        <v>9.624753864031509e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1.277439411078144e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.248926281880188e-05</v>
+        <v>2.349597561471762e-06</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.943823265690374e-06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2.965421300736407</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.7053170130399972</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.5930842601472813</v>
       </c>
     </row>
     <row r="118">
@@ -2012,13 +3424,25 @@
         <v>4.97004</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0001003762854282088</v>
+        <v>0.0001003098835531739</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1.245887538424623e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>1.193477314940472e-05</v>
+        <v>2.570236859102792e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>4.278214871169161e-06</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6.636772895043692</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.2490852944228689</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.327354579008738</v>
       </c>
     </row>
     <row r="119">
@@ -2026,13 +3450,25 @@
         <v>4.9728</v>
       </c>
       <c r="B119" t="n">
-        <v>9.798272187231196e-05</v>
+        <v>9.803536252331628e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1.501762483280338e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.459369683496949e-05</v>
+        <v>2.27743119040276e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.879120633776239e-06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3.017349976387379</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.6973108331003028</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.6034699952774758</v>
       </c>
     </row>
     <row r="120">
@@ -2040,13 +3476,25 @@
         <v>4.97463</v>
       </c>
       <c r="B120" t="n">
-        <v>9.733999227899897e-05</v>
+        <v>9.741317494068214e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1.311260842502718e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>1.276109685939566e-05</v>
+        <v>2.375092536576755e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.966596441970262e-06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.410688887621547</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.6369424962370125</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.6821377775243095</v>
       </c>
     </row>
     <row r="121">
@@ -2054,13 +3502,25 @@
         <v>4.98471</v>
       </c>
       <c r="B121" t="n">
-        <v>8.130881764084185e-05</v>
+        <v>8.12773514517237e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>9.400600737187695e-06</v>
       </c>
       <c r="D121" t="n">
-        <v>9.233305671056393e-06</v>
+        <v>1.994759038686971e-06</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.33616882996235e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2.034372666668871</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8443687756012849</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.4068745333337742</v>
       </c>
     </row>
     <row r="122">
@@ -2068,13 +3528,25 @@
         <v>4.990069999999999</v>
       </c>
       <c r="B122" t="n">
-        <v>7.916755640793405e-05</v>
+        <v>7.937612911102048e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1.372513659615111e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>1.388540803276016e-05</v>
+        <v>2.083314525240369e-06</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.507788397248837e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4.590771954445954</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.4678310777530833</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9181543908891909</v>
       </c>
     </row>
     <row r="123">
@@ -2082,13 +3554,25 @@
         <v>4.994669999999999</v>
       </c>
       <c r="B123" t="n">
-        <v>6.337886397229273e-05</v>
+        <v>6.343419911593169e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>8.099002703365809e-06</v>
       </c>
       <c r="D123" t="n">
-        <v>7.868621212991749e-06</v>
+        <v>1.595464046214765e-06</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.665552254416208e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>4.362242590247584</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.4985236648429306</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.8724485180495168</v>
       </c>
     </row>
     <row r="124">
@@ -2096,13 +3580,25 @@
         <v>5.00464</v>
       </c>
       <c r="B124" t="n">
-        <v>5.036329271818334e-05</v>
+        <v>5.033838862442364e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>5.435582112396607e-06</v>
       </c>
       <c r="D124" t="n">
-        <v>5.418326750894076e-06</v>
+        <v>1.274754992020127e-06</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.101444092288598e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2952656108110054</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.9977311800541975</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.05905312216220109</v>
       </c>
     </row>
     <row r="125">
@@ -2110,13 +3606,25 @@
         <v>5.00999</v>
       </c>
       <c r="B125" t="n">
-        <v>5.410045466615551e-05</v>
+        <v>5.401702904077393e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>6.906456620193301e-06</v>
       </c>
       <c r="D125" t="n">
-        <v>6.909811174453718e-06</v>
+        <v>1.559810138225309e-06</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.576685767135367e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.492189694765087</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.9139693580648245</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.2984379389530175</v>
       </c>
     </row>
     <row r="126">
@@ -2124,13 +3632,25 @@
         <v>5.01484</v>
       </c>
       <c r="B126" t="n">
-        <v>6.820758193786773e-05</v>
+        <v>6.815903658984634e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1.271080019876788e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>1.248875258035653e-05</v>
+        <v>1.73138985269499e-06</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.943037723784394e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.985541936543994</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.7022149718957331</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.5971083873087989</v>
       </c>
     </row>
     <row r="127">
@@ -2138,13 +3658,25 @@
         <v>5.01774</v>
       </c>
       <c r="B127" t="n">
-        <v>9.296587078819234e-05</v>
+        <v>9.293619495709996e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1.466920836242146e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.445174001521446e-05</v>
+        <v>2.276552198760982e-06</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.860095927404342e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2.160561472369752</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8265117850750345</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4321122944739503</v>
       </c>
     </row>
     <row r="128">
@@ -2152,13 +3684,25 @@
         <v>5.01786</v>
       </c>
       <c r="B128" t="n">
-        <v>8.944802817572064e-05</v>
+        <v>8.942802022216339e-05</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1.087702747400392e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>1.082135250793676e-05</v>
+        <v>2.188111540179395e-06</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.626724190575219e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.08551960366156008</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.9998896514796231</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.01710392073231202</v>
       </c>
     </row>
     <row r="129">
@@ -2166,13 +3710,25 @@
         <v>5.019819999999999</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001445061489815824</v>
+        <v>0.0001443886327355593</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2.464688073328939e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>2.450783085165418e-05</v>
+        <v>3.480980898374894e-06</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.869151982206728e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.4190857540606205</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.9947875635467961</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0838171508121241</v>
       </c>
     </row>
     <row r="130">
@@ -2180,13 +3736,25 @@
         <v>5.0248</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002629931604858811</v>
+        <v>0.0002633628720497242</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>4.013841966043425e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>4.031149694431154e-05</v>
+        <v>6.3849864130796e-06</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.059201118837761e-05</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.594071199024618</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.9019653814825463</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.3188142398049236</v>
       </c>
     </row>
     <row r="131">
@@ -2194,13 +3762,25 @@
         <v>5.027830000000001</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002894848036668985</v>
+        <v>0.0002897779385346958</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>4.503056992732205e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>4.497858339196471e-05</v>
+        <v>7.117471888581624e-06</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.180453815291124e-05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.438434435444042</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.9200632436887068</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.2876868870888084</v>
       </c>
     </row>
     <row r="132">
@@ -2208,13 +3788,25 @@
         <v>5.0301</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0003097069200547742</v>
+        <v>0.0003099524921668068</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>5.499607559446691e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>5.256124495192468e-05</v>
+        <v>7.798027023315809e-06</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.32909322138509e-05</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6.189478591831383</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.2882160597869963</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.237895718366277</v>
       </c>
     </row>
     <row r="133">
@@ -2222,13 +3814,25 @@
         <v>5.032780000000001</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0003478784040246785</v>
+        <v>0.0003483479683084869</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>6.664093759227012e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>6.700909266257926e-05</v>
+        <v>8.255435670106582e-06</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.410717732101477e-05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.4753408472239827</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.9929984057770571</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.09506816944479654</v>
       </c>
     </row>
     <row r="134">
@@ -2236,13 +3840,25 @@
         <v>5.0359</v>
       </c>
       <c r="B134" t="n">
-        <v>0.000399153355877117</v>
+        <v>0.0003990299385890005</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>6.58675297123997e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>6.606466535590738e-05</v>
+        <v>9.286568375295233e-06</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.570079333883089e-05</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2070232805754608</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.9990364095872052</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.04140465611509216</v>
       </c>
     </row>
     <row r="135">
@@ -2250,13 +3866,25 @@
         <v>5.03871</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0004175797743588901</v>
+        <v>0.0004179601184743539</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>7.685211818159556e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>7.723102396745638e-05</v>
+        <v>9.686472305550173e-06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.64491021796609e-05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.3403103139839444</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.9968155067738231</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.06806206279678888</v>
       </c>
     </row>
     <row r="136">
@@ -2264,13 +3892,25 @@
         <v>5.041980000000001</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0004062195153217591</v>
+        <v>0.000406405634503354</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>8.409572080280269e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>8.451148222869734e-05</v>
+        <v>9.665130061681822e-06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.658119329061872e-05</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.3086076426112379</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.9974780573634514</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.06172152852224758</v>
       </c>
     </row>
     <row r="137">
@@ -2278,13 +3918,25 @@
         <v>5.04479</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0003703026273828216</v>
+        <v>0.0003702977703709593</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>6.908089598999315e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>6.888970066345599e-05</v>
+        <v>8.764531275729831e-06</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.488301167128904e-05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.3524005341191409</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.9965398925492891</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.07048010682382819</v>
       </c>
     </row>
     <row r="138">
@@ -2292,13 +3944,25 @@
         <v>5.04997</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0002948199981619317</v>
+        <v>0.0002948995257876882</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>7.489953752098263e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>7.491014590851366e-05</v>
+        <v>7.195132799778955e-06</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.246226481038379e-05</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.849644150660753</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8695338284206707</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.3699288301321507</v>
       </c>
     </row>
     <row r="139">
@@ -2306,13 +3970,25 @@
         <v>5.05484</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002092539864217989</v>
+        <v>0.000209278543987777</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>5.149616339563659e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>5.165357568308575e-05</v>
+        <v>5.084232838614636e-06</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8.690597800196289e-06</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.983161950483534</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.85146996469342</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.3966323900967067</v>
       </c>
     </row>
     <row r="140">
@@ -2320,13 +3996,25 @@
         <v>5.06488</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0001417254651432609</v>
+        <v>0.0001419254507322519</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2.968173619843915e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>2.981279850632847e-05</v>
+        <v>3.62418807028225e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>6.125155150885121e-06</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.5208120793082043</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.9913414022262268</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.1041624158616409</v>
       </c>
     </row>
     <row r="141">
@@ -2334,13 +4022,25 @@
         <v>5.06991</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001159179459582152</v>
+        <v>0.0001161933000821669</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2.648592335448025e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>2.686775682992554e-05</v>
+        <v>3.236761907413753e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>5.544323323234915e-06</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.603288424912396</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7608655686009259</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.5206576849824793</v>
       </c>
     </row>
     <row r="142">
@@ -2348,13 +4048,25 @@
         <v>5.07448</v>
       </c>
       <c r="B142" t="n">
-        <v>9.35179810144008e-05</v>
+        <v>9.372501604667109e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2.06897717636098e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>2.065403581752922e-05</v>
+        <v>2.452265822121437e-06</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4.161108077257e-06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.282024556795798</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.9367704241684013</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.2564049113591597</v>
       </c>
     </row>
     <row r="143">
@@ -2362,13 +4074,25 @@
         <v>5.08419</v>
       </c>
       <c r="B143" t="n">
-        <v>8.036648332904922e-05</v>
+        <v>8.042128861528934e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1.864442221542173e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>1.865733247580694e-05</v>
+        <v>2.26786626848725e-06</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.844787702839932e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.317192263026541</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8037385202096803</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.4634384526053082</v>
       </c>
     </row>
     <row r="144">
@@ -2376,13 +4100,25 @@
         <v>5.08999</v>
       </c>
       <c r="B144" t="n">
-        <v>8.95886903032286e-05</v>
+        <v>8.979737603938117e-05</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1.839057440246012e-05</v>
       </c>
       <c r="D144" t="n">
-        <v>1.879378651022996e-05</v>
+        <v>2.555865979790613e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>4.320096237155239e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3.324579854702986</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.6500806718682667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.6649159709405972</v>
       </c>
     </row>
     <row r="145">
@@ -2390,13 +4126,25 @@
         <v>5.093719999999999</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003274848882866957</v>
+        <v>0.0003279356805084029</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>8.324391972507495e-05</v>
       </c>
       <c r="D145" t="n">
-        <v>8.235930169551548e-05</v>
+        <v>8.120616816129675e-06</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.392062615371268e-05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.549061070906347</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.9073396840066429</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.3098122141812695</v>
       </c>
     </row>
     <row r="146">
@@ -2404,13 +4152,25 @@
         <v>5.09676</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0006289142838313323</v>
+        <v>0.0006289872000099419</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>0.0001594069578259294</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0001572017227485285</v>
+        <v>1.378791011995457e-05</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.434397615936302e-05</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.456314186816928</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.9180554191362373</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.2912628373633857</v>
       </c>
     </row>
     <row r="147">
@@ -2418,13 +4178,25 @@
         <v>5.09889</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0007004713020102729</v>
+        <v>0.0007002477910124301</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>0.0001770985784781294</v>
       </c>
       <c r="D147" t="n">
-        <v>0.0001750904542154271</v>
+        <v>1.571137051438786e-05</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.763863544876225e-05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.8833494828052361</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.9714153490722611</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.1766698965610472</v>
       </c>
     </row>
     <row r="148">
@@ -2432,13 +4204,25 @@
         <v>5.09999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0007347409296000613</v>
+        <v>0.000734529137036864</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>0.0001853241971070521</v>
       </c>
       <c r="D148" t="n">
-        <v>0.000185343242982909</v>
+        <v>1.670968077266712e-05</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.918883316157295e-05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6849208039419523</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.9837859951384328</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.1369841607883905</v>
       </c>
     </row>
     <row r="149">
@@ -2446,13 +4230,25 @@
         <v>5.10043</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0007197982710575777</v>
+        <v>0.0007194687470010965</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.0001751129673920464</v>
       </c>
       <c r="D149" t="n">
-        <v>0.0001748085038419873</v>
+        <v>1.637242505194134e-05</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.851081796857077e-05</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.10308458022045</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.9538302815808336</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.2206169160440901</v>
       </c>
     </row>
     <row r="150">
@@ -2460,13 +4256,25 @@
         <v>5.100709999999999</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007163760299402067</v>
+        <v>0.0007164243969765234</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>0.0001675715266718879</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0001679571193272013</v>
+        <v>1.629969164469694e-05</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.831182872279505e-05</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.8640990368826229</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.972766056029247</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.1728198073765246</v>
       </c>
     </row>
     <row r="151">
@@ -2474,13 +4282,25 @@
         <v>5.10288</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0008869100803889332</v>
+        <v>0.0008871575213986209</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>0.0002175664476588636</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0002179156877118012</v>
+        <v>1.989402265360837e-05</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.473832793672828e-05</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.896185308929333</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.9704971953978732</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.1792370617858666</v>
       </c>
     </row>
     <row r="152">
@@ -2488,13 +4308,25 @@
         <v>5.10486</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0009258441238434543</v>
+        <v>0.0009261393019295433</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>0.0002134392240206748</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0002142210048291047</v>
+        <v>2.059640872764227e-05</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.573751596731267e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.331173949485394</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.9316914488570869</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.2662347898970789</v>
       </c>
     </row>
     <row r="153">
@@ -2502,13 +4334,25 @@
         <v>5.1069</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0009275945762722357</v>
+        <v>0.0009275930559307739</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>0.0002049775811675687</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0002029717649235217</v>
+        <v>2.081488850838131e-05</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.620285568343423e-05</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.363912578343989</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.9282197716185536</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.2727825156687978</v>
       </c>
     </row>
     <row r="154">
@@ -2516,13 +4360,25 @@
         <v>5.10878</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0009383332781508528</v>
+        <v>0.0009384172846718303</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>0.0002559760624663799</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0002539574933846175</v>
+        <v>2.068968388895745e-05</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.664720975999575e-05</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.820040378313384</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8734431155304373</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.3640080756626768</v>
       </c>
     </row>
     <row r="155">
@@ -2530,13 +4386,25 @@
         <v>5.110040000000001</v>
       </c>
       <c r="B155" t="n">
-        <v>0.000948630715833791</v>
+        <v>0.0009499341740263583</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>0.0002334615650125702</v>
       </c>
       <c r="D155" t="n">
-        <v>0.00022776118923471</v>
+        <v>2.119204962122194e-05</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.734954103609519e-05</v>
+      </c>
+      <c r="F155" t="n">
+        <v>3.537103731580964</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.6177809496353448</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.7074207463161928</v>
       </c>
     </row>
     <row r="156">
@@ -2544,13 +4412,25 @@
         <v>5.11075</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0009329868193113974</v>
+        <v>0.0009331929177550178</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>0.0002152460148568375</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0002136551975701304</v>
+        <v>2.084279838998893e-05</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.63845952861927e-05</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.484276178336297</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.9148771755346201</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.2968552356672595</v>
       </c>
     </row>
     <row r="157">
@@ -2558,13 +4438,25 @@
         <v>5.11384</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0009169851405015523</v>
+        <v>0.0009169370077095767</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.0002049080691948009</v>
       </c>
       <c r="D157" t="n">
-        <v>0.0002039411582358681</v>
+        <v>2.026811146748454e-05</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.529485939088891e-05</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9890884711387065</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.963441053155916</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.1978176942277413</v>
       </c>
     </row>
     <row r="158">
@@ -2572,13 +4464,25 @@
         <v>5.1188</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0007686135658900708</v>
+        <v>0.00076848003097607</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>0.0001790207597790411</v>
       </c>
       <c r="D158" t="n">
-        <v>0.00017780377706619</v>
+        <v>1.681697541636765e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.944696900871944e-05</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.8325083565714928</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.9749136858520403</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.1665016713142985</v>
       </c>
     </row>
     <row r="159">
@@ -2586,13 +4490,25 @@
         <v>5.123769999999999</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0005614994619573052</v>
+        <v>0.0005617457790071806</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>0.0001318166715897575</v>
       </c>
       <c r="D159" t="n">
-        <v>0.0001322086673375502</v>
+        <v>1.293633380417154e-05</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.242514617042616e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.351346315656693</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.9295605594208788</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.2702692631313386</v>
       </c>
     </row>
     <row r="160">
@@ -2600,13 +4516,25 @@
         <v>5.12852</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0004110573755826645</v>
+        <v>0.0004109058677905052</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>8.871069880876111e-05</v>
       </c>
       <c r="D160" t="n">
-        <v>8.818730270044818e-05</v>
+        <v>9.330327168600727e-06</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.617453578974185e-05</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.212401048416381</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.9436821334832155</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.2424802096832761</v>
       </c>
     </row>
     <row r="161">
@@ -2614,13 +4542,25 @@
         <v>5.12994</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0004312684554766214</v>
+        <v>0.000431550682565458</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>0.0001119638769162891</v>
       </c>
       <c r="D161" t="n">
-        <v>0.0001085559888854834</v>
+        <v>1.009425986672415e-05</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.778571515946896e-05</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4.609968682209415</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.4653061601314546</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.9219937364418829</v>
       </c>
     </row>
     <row r="162">
@@ -2628,13 +4568,25 @@
         <v>5.13381</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0003313450121682402</v>
+        <v>0.0003312951520576627</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>8.151500122981288e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>8.121967335957263e-05</v>
+        <v>7.596490795916123e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.32726430924785e-05</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.5436721105251695</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9904368048825785</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.1087344221050339</v>
       </c>
     </row>
     <row r="163">
@@ -2642,13 +4594,25 @@
         <v>5.13888</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0003318285638288924</v>
+        <v>0.0003316801359117859</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>7.458826450361362e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>7.390666216760205e-05</v>
+        <v>7.713652169550186e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.33942735616566e-05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.6737769120948069</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9843768019529355</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.1347553824189614</v>
       </c>
     </row>
     <row r="164">
@@ -2656,13 +4620,25 @@
         <v>5.14165</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0003180432740174632</v>
+        <v>0.0003178747540507316</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>7.846414534188717e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>7.839935279443142e-05</v>
+        <v>7.290454475041237e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.270672793656595e-05</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.5893178480041836</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9884871037932013</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.1178635696008367</v>
       </c>
     </row>
     <row r="165">
@@ -2670,13 +4646,25 @@
         <v>5.144740000000001</v>
       </c>
       <c r="B165" t="n">
-        <v>0.000293044567114584</v>
+        <v>0.000292931175620548</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>6.34459418851892e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>6.327709915438107e-05</v>
+        <v>6.812300201466981e-06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.174554244097294e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.09358168379059084</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9998621735563246</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.01871633675811817</v>
       </c>
     </row>
     <row r="166">
@@ -2684,13 +4672,25 @@
         <v>5.14799</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0002705668971839872</v>
+        <v>0.000270519880563039</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>5.867643242736165e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>5.919993750090227e-05</v>
+        <v>6.467463577565071e-06</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.101530318861429e-05</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.011530764514707</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9616303857548337</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.2023061529029413</v>
       </c>
     </row>
     <row r="167">
@@ -2698,13 +4698,25 @@
         <v>5.15001</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0002613044973062039</v>
+        <v>0.0002614621656501925</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>6.671498840661447e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>6.677163122688541e-05</v>
+        <v>6.498847667261062e-06</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1.123692090737754e-05</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2.58709175797871</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.7633255330323534</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.5174183515957419</v>
       </c>
     </row>
     <row r="168">
@@ -2712,13 +4724,25 @@
         <v>5.150980000000001</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0002494698370914699</v>
+        <v>0.0002497922576718321</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>5.802102214493215e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>5.80508413788865e-05</v>
+        <v>5.815799442945698e-06</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.006925686101032e-05</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.619364910550453</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8988976881665601</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.3238729821100906</v>
       </c>
     </row>
     <row r="169">
@@ -2726,13 +4750,25 @@
         <v>5.15704</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0002102555443252437</v>
+        <v>0.0002101444170448624</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>4.251841563835163e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>4.265485563806381e-05</v>
+        <v>4.984087938118199e-06</v>
+      </c>
+      <c r="E169" t="n">
+        <v>8.490029099336386e-06</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.8805424013778054</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.9716142764574289</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.1761084802755611</v>
       </c>
     </row>
     <row r="170">
@@ -2740,13 +4776,25 @@
         <v>5.15937</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001894761727164424</v>
+        <v>0.0001894586920802611</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>4.204428727623316e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>4.138912960575941e-05</v>
+        <v>4.421695038108539e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>7.686600796829389e-06</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.55360101696271</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.9068026165695015</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.3107202033925419</v>
       </c>
     </row>
     <row r="171">
@@ -2754,13 +4802,25 @@
         <v>5.17005</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001199970050862777</v>
+        <v>0.0001198925017705781</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2.822643869862106e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>2.834709512024445e-05</v>
+        <v>3.259411342186375e-06</v>
+      </c>
+      <c r="E171" t="n">
+        <v>5.546345712936832e-06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.200676109130895</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.9448124849972528</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.2401352218261791</v>
       </c>
     </row>
     <row r="172">
@@ -2768,13 +4828,25 @@
         <v>5.18984</v>
       </c>
       <c r="B172" t="n">
-        <v>8.954321556553417e-05</v>
+        <v>8.967951224754498e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1.954150999673328e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>1.9262791968848e-05</v>
+        <v>2.30196264941168e-06</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.960956690466874e-06</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4.191260544854587</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.5222206962481839</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.8382521089709174</v>
       </c>
     </row>
     <row r="173">
@@ -2782,13 +4854,25 @@
         <v>5.210030000000001</v>
       </c>
       <c r="B173" t="n">
-        <v>9.744236780431445e-05</v>
+        <v>9.773159963804307e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>2.356903115934152e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>2.359656490920344e-05</v>
+        <v>2.595639271140028e-06</v>
+      </c>
+      <c r="E173" t="n">
+        <v>4.479284249800018e-06</v>
+      </c>
+      <c r="F173" t="n">
+        <v>3.720921426504212</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.5902536439969609</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.7441842853008424</v>
       </c>
     </row>
     <row r="174">
@@ -2796,13 +4880,25 @@
         <v>5.23003</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001316743967105767</v>
+        <v>0.0001318813742898141</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2.459864007586221e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>2.520826514904323e-05</v>
+        <v>3.796561561283571e-06</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.319548652861234e-06</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2.582397025203688</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.764037985492756</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.5164794050407376</v>
       </c>
     </row>
     <row r="175">
@@ -2810,13 +4906,25 @@
         <v>5.2395</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001699537343631914</v>
+        <v>0.0001697976989320712</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>3.927468578727779e-05</v>
       </c>
       <c r="D175" t="n">
-        <v>3.903533149286683e-05</v>
+        <v>4.258039943737687e-06</v>
+      </c>
+      <c r="E175" t="n">
+        <v>7.236323507730311e-06</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.952282158643784</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8557075445204684</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.3904564317287568</v>
       </c>
     </row>
     <row r="176">
@@ -2824,13 +4932,25 @@
         <v>5.24306</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001866949390374003</v>
+        <v>0.0001868069183830232</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>3.890078041832896e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>3.858131152948595e-05</v>
+        <v>5.309024902973859e-06</v>
+      </c>
+      <c r="E176" t="n">
+        <v>8.829520742292436e-06</v>
+      </c>
+      <c r="F176" t="n">
+        <v>4.595215529999365</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.4672458711375936</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.9190431059998729</v>
       </c>
     </row>
     <row r="177">
@@ -2838,13 +4958,25 @@
         <v>5.25013</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002587603752978719</v>
+        <v>0.0002586981361769891</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>5.12069590871382e-05</v>
       </c>
       <c r="D177" t="n">
-        <v>5.205751388931185e-05</v>
+        <v>7.672149443776004e-06</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.264633714478885e-05</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2.858260353315107</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.7218268157529905</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.5716520706630213</v>
       </c>
     </row>
     <row r="178">
@@ -2852,13 +4984,25 @@
         <v>5.25994</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003880648721266554</v>
+        <v>0.0003878414107190129</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>8.208689780606919e-05</v>
       </c>
       <c r="D178" t="n">
-        <v>8.132431005806308e-05</v>
+        <v>1.045527484022814e-05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.755083852905804e-05</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3.173044634243841</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.6733273150250048</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.6346089268487682</v>
       </c>
     </row>
     <row r="179">
@@ -2866,13 +5010,25 @@
         <v>5.26504</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004557489087038168</v>
+        <v>0.0004559118460993071</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>8.758906345639043e-05</v>
       </c>
       <c r="D179" t="n">
-        <v>8.79586579425341e-05</v>
+        <v>1.276342615577669e-05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.10335635586647e-05</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2.063150308859521</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.8403398089747902</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.4126300617719042</v>
       </c>
     </row>
     <row r="180">
@@ -2880,13 +5036,25 @@
         <v>5.26998</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005567243415591761</v>
+        <v>0.0005568689496667678</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>0.0001299498380384531</v>
       </c>
       <c r="D180" t="n">
-        <v>0.000130561845376438</v>
+        <v>1.476989646183198e-05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.503254799468848e-05</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.51733716277701</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.9110604805527981</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.303467432555402</v>
       </c>
     </row>
     <row r="181">
@@ -2894,13 +5062,25 @@
         <v>5.27496</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0007543952741927856</v>
+        <v>0.0007534041091065827</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>0.0002276180775019353</v>
       </c>
       <c r="D181" t="n">
-        <v>0.000222992463537286</v>
+        <v>1.87827550251932e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.309400548314453e-05</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3.177347465161187</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.6726655347800368</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.6354694930322373</v>
       </c>
     </row>
     <row r="182">
@@ -2908,13 +5088,25 @@
         <v>5.27502</v>
       </c>
       <c r="B182" t="n">
-        <v>0.00074332641862453</v>
+        <v>0.0007439401171305828</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>0.0002072256468826409</v>
       </c>
       <c r="D182" t="n">
-        <v>0.000207291400226619</v>
+        <v>1.697394458678588e-05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.985438291868821e-05</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.5782472213097749</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.9889775265725007</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.115649444261955</v>
       </c>
     </row>
     <row r="183">
@@ -2922,13 +5114,25 @@
         <v>5.279809999999999</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001126047074230646</v>
+        <v>0.001125363710114792</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>0.0002688812441148623</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0002675197372230157</v>
+        <v>2.7516102841357e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>4.751700181054852e-05</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.9244826891128052</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.9684239413124244</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.184896537822561</v>
       </c>
     </row>
     <row r="184">
@@ -2936,13 +5140,25 @@
         <v>5.28495</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001439837513574695</v>
+        <v>0.001440179633580671</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>0.0003345028441398094</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0003257830019644106</v>
+        <v>3.485068093237173e-05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>6.016191501647213e-05</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5.199680622580166</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.3920002980976762</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1.039936124516033</v>
       </c>
     </row>
     <row r="185">
@@ -2950,13 +5166,25 @@
         <v>5.29016</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001882078939961909</v>
+        <v>0.001885922059351911</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>0.0004253441786091744</v>
       </c>
       <c r="D185" t="n">
-        <v>0.0004057496006959531</v>
+        <v>4.178806600932117e-05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>7.360724542964165e-05</v>
+      </c>
+      <c r="F185" t="n">
+        <v>6.101385168640315</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.2964783596563443</v>
+      </c>
+      <c r="H185" t="n">
+        <v>1.220277033728063</v>
       </c>
     </row>
     <row r="186">
@@ -2964,13 +5192,25 @@
         <v>5.29294</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002209283402254316</v>
+        <v>0.002210483324493115</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>0.0006339935068178166</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0006282860898029525</v>
+        <v>4.809752711448332e-05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>8.598282641704471e-05</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.8369887859293483</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.974614336410776</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.1673977571858697</v>
       </c>
     </row>
     <row r="187">
@@ -2978,13 +5218,25 @@
         <v>5.29767</v>
       </c>
       <c r="B187" t="n">
-        <v>0.00214861287231565</v>
+        <v>0.00215246680226659</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>0.0005251905408095683</v>
       </c>
       <c r="D187" t="n">
-        <v>0.0005038435618203256</v>
+        <v>4.552353024580753e-05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>8.068999022750973e-05</v>
+      </c>
+      <c r="F187" t="n">
+        <v>5.574995255911814</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.3497924392558314</v>
+      </c>
+      <c r="H187" t="n">
+        <v>1.114999051182363</v>
       </c>
     </row>
     <row r="188">
@@ -2992,13 +5244,25 @@
         <v>5.29972</v>
       </c>
       <c r="B188" t="n">
-        <v>0.00211205279846225</v>
+        <v>0.002112144239516229</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>0.0005555564449138846</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0005554303026329018</v>
+        <v>4.520420628309984e-05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>7.990371528441599e-05</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.4381367748239288</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.9942137957756993</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.08762735496478576</v>
       </c>
     </row>
     <row r="189">
@@ -3006,13 +5270,25 @@
         <v>5.30238</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001988473315615876</v>
+        <v>0.001991479906987242</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>0.0004869081784472236</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0004701426952502816</v>
+        <v>4.31285214562462e-05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>7.606882516601778e-05</v>
+      </c>
+      <c r="F189" t="n">
+        <v>5.263245776813775</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.3846051956224128</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1.052649155362755</v>
       </c>
     </row>
     <row r="190">
@@ -3020,13 +5296,25 @@
         <v>5.30823</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001729137505435551</v>
+        <v>0.001731001401343121</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>0.0004400589615130724</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0004250702429700581</v>
+        <v>3.62373561624012e-05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>6.463163404546217e-05</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3.814627222991235</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.5764018618913067</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.762925444598247</v>
       </c>
     </row>
     <row r="191">
@@ -3034,13 +5322,25 @@
         <v>5.312880000000001</v>
       </c>
       <c r="B191" t="n">
-        <v>0.001643008977112072</v>
+        <v>0.001645972024114981</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>0.000425660252069001</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0004059454230503229</v>
+        <v>3.477018246145187e-05</v>
+      </c>
+      <c r="E191" t="n">
+        <v>6.213607709212422e-05</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5.877613436262179</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.3183104387242487</v>
+      </c>
+      <c r="H191" t="n">
+        <v>1.175522687252436</v>
       </c>
     </row>
     <row r="192">
@@ -3048,13 +5348,25 @@
         <v>5.31752</v>
       </c>
       <c r="B192" t="n">
-        <v>0.001407604938809945</v>
+        <v>0.001410258982933133</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>0.0003851934964467324</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0003700293945233525</v>
+        <v>2.98385257787346e-05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>5.343146781877119e-05</v>
+      </c>
+      <c r="F192" t="n">
+        <v>5.849621715101451</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.3211275157353407</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1.16992434302029</v>
       </c>
     </row>
     <row r="193">
@@ -3062,13 +5374,25 @@
         <v>5.32281</v>
       </c>
       <c r="B193" t="n">
-        <v>0.001119255154638048</v>
+        <v>0.001121443710617881</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>0.0003134147969752473</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0003036028435469642</v>
+        <v>2.384760333292502e-05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>4.277344003073552e-05</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4.893158455398809</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.4290580723436346</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.9786316910797618</v>
       </c>
     </row>
     <row r="194">
@@ -3076,13 +5400,25 @@
         <v>5.32768</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0009433344584696594</v>
+        <v>0.0009449148060501429</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>0.0002421789905302759</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0002316164340073957</v>
+        <v>2.045575623731594e-05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.649257992006634e-05</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5.216721345925854</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.390007965176203</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1.043344269185171</v>
       </c>
     </row>
     <row r="195">
@@ -3090,13 +5426,25 @@
         <v>5.33288</v>
       </c>
       <c r="B195" t="n">
-        <v>0.000690494345949398</v>
+        <v>0.0006915083369279608</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>0.0002017422321275225</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0002028897481457881</v>
+        <v>1.552230790249787e-05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.757167697933467e-05</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.698350622551398</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.9830590742621726</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.1396701245102796</v>
       </c>
     </row>
     <row r="196">
@@ -3104,13 +5452,25 @@
         <v>5.33291</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0007180044142617617</v>
+        <v>0.0007186372954272539</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>0.0001930143328108533</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0001873931143971979</v>
+        <v>1.565194244321665e-05</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.790177126312348e-05</v>
+      </c>
+      <c r="F196" t="n">
+        <v>3.823588379840169</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.5750842518031642</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.7647176759680337</v>
       </c>
     </row>
     <row r="197">
@@ -3118,13 +5478,25 @@
         <v>5.33747</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0004823328945720481</v>
+        <v>0.0004831239502015519</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>0.0001176913119672195</v>
       </c>
       <c r="D197" t="n">
-        <v>0.000113266002082665</v>
+        <v>1.07884726113559e-05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.910609264494767e-05</v>
+      </c>
+      <c r="F197" t="n">
+        <v>4.995062764612826</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.4164830321562935</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.9990125529225653</v>
       </c>
     </row>
     <row r="198">
@@ -3132,13 +5504,25 @@
         <v>5.34274</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002950972771199318</v>
+        <v>0.0002957067503787356</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>6.812357265594077e-05</v>
       </c>
       <c r="D198" t="n">
-        <v>6.911049148414294e-05</v>
+        <v>7.11035251595372e-06</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1.220035705188731e-05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1.020387457025313</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.9609046787840571</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.2040774914050626</v>
       </c>
     </row>
     <row r="199">
@@ -3146,13 +5530,25 @@
         <v>5.34293</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002984349116278419</v>
+        <v>0.0002987254459382051</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>6.692035647602211e-05</v>
       </c>
       <c r="D199" t="n">
-        <v>6.635804195524716e-05</v>
+        <v>6.971364680799235e-06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>1.218077606135814e-05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1.711629560471378</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.8874313876786958</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.3423259120942755</v>
       </c>
     </row>
     <row r="200">
@@ -3160,13 +5556,25 @@
         <v>5.34694</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002235387796955132</v>
+        <v>0.0002238212670562856</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>3.941938945940053e-05</v>
       </c>
       <c r="D200" t="n">
-        <v>3.97859483941387e-05</v>
+        <v>5.471348487887426e-06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>9.224740256605675e-06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1.328975871602648</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.931922030061187</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.2657951743205295</v>
       </c>
     </row>
     <row r="201">
@@ -3174,13 +5582,25 @@
         <v>5.34826</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002135643665350282</v>
+        <v>0.0002139701341039692</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>4.574046445276139e-05</v>
       </c>
       <c r="D201" t="n">
-        <v>4.50256374742502e-05</v>
+        <v>5.080806324213142e-06</v>
+      </c>
+      <c r="E201" t="n">
+        <v>8.872999750873043e-06</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3.255313992564992</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.6606897251820261</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.6510627985129984</v>
       </c>
     </row>
     <row r="202">
@@ -3188,13 +5608,25 @@
         <v>5.34858</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0001994750321456048</v>
+        <v>0.0001999679635858424</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>3.870771807607368e-05</v>
       </c>
       <c r="D202" t="n">
-        <v>3.931928306594008e-05</v>
+        <v>4.766961791345728e-06</v>
+      </c>
+      <c r="E202" t="n">
+        <v>8.137724199620714e-06</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.8630428845680325</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.9728392441085346</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.1726085769136065</v>
       </c>
     </row>
     <row r="203">
@@ -3202,13 +5634,25 @@
         <v>5.35205</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0003368267821749057</v>
+        <v>0.000336648200718582</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>7.952110627865413e-05</v>
       </c>
       <c r="D203" t="n">
-        <v>7.985672188180325e-05</v>
+        <v>8.116214740328873e-06</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.39972699133089e-05</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.9855842513028893</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.9637201020938538</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.1971168502605778</v>
       </c>
     </row>
     <row r="204">
@@ -3216,13 +5660,25 @@
         <v>5.3536</v>
       </c>
       <c r="B204" t="n">
-        <v>0.000260783220361859</v>
+        <v>0.0002611182622248881</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>6.402476021843114e-05</v>
       </c>
       <c r="D204" t="n">
-        <v>6.288064619093591e-05</v>
+        <v>5.81251267347463e-06</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.024496824049017e-05</v>
+      </c>
+      <c r="F204" t="n">
+        <v>3.252210905869966</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.6611657350121745</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.6504421811739932</v>
       </c>
     </row>
     <row r="205">
@@ -3230,13 +5686,25 @@
         <v>5.3579</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0004107105994691061</v>
+        <v>0.0004105612761950916</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>9.339378702223462e-05</v>
       </c>
       <c r="D205" t="n">
-        <v>9.334526907378792e-05</v>
+        <v>9.768896324377818e-06</v>
+      </c>
+      <c r="E205" t="n">
+        <v>1.690759362222311e-05</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.783374339005792</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.978081638036885</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.1566748678011584</v>
       </c>
     </row>
     <row r="206">
@@ -3244,13 +5712,25 @@
         <v>5.35797</v>
       </c>
       <c r="B206" t="n">
-        <v>0.000436723851382276</v>
+        <v>0.0004372639484982919</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>0.0001120256737842616</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0001087916835791885</v>
+        <v>9.595874739834708e-06</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.706877261485874e-05</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3.616273227869677</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.6058716075760641</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.7232546455739353</v>
       </c>
     </row>
     <row r="207">
@@ -3258,13 +5738,25 @@
         <v>5.359830000000001</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003894125365615857</v>
+        <v>0.0003895319876284907</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>8.739289084385796e-05</v>
       </c>
       <c r="D207" t="n">
-        <v>8.773314880614938e-05</v>
+        <v>9.272490830512224e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.603242112803003e-05</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.8680529033821581</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.9724912168440791</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.1736105806764316</v>
       </c>
     </row>
     <row r="208">
@@ -3272,13 +5764,25 @@
         <v>5.36189</v>
       </c>
       <c r="B208" t="n">
-        <v>0.000374565678397468</v>
+        <v>0.0003760095273598687</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>8.621768227572621e-05</v>
       </c>
       <c r="D208" t="n">
-        <v>8.886373646866792e-05</v>
+        <v>9.017726563075168e-06</v>
+      </c>
+      <c r="E208" t="n">
+        <v>1.554787098196664e-05</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2.259967714900576</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.8121282110578009</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.4519935429801151</v>
       </c>
     </row>
     <row r="209">
@@ -3286,13 +5790,25 @@
         <v>5.36386</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003695631306242106</v>
+        <v>0.0003701776160974378</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>9.287905392012499e-05</v>
       </c>
       <c r="D209" t="n">
-        <v>9.248159435659863e-05</v>
+        <v>8.852960977674944e-06</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.544483534956099e-05</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3.01375647479781</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.6978648691811277</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.602751294959562</v>
       </c>
     </row>
     <row r="210">
@@ -3300,13 +5816,25 @@
         <v>5.36605</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0003588679802276306</v>
+        <v>0.0003586475637217024</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>8.245235102093208e-05</v>
       </c>
       <c r="D210" t="n">
-        <v>8.273733733802366e-05</v>
+        <v>8.718898742851037e-06</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.499113862768523e-05</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.4598581131807477</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.9935194944181148</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.09197162263614952</v>
       </c>
     </row>
     <row r="211">
@@ -3314,13 +5842,25 @@
         <v>5.368040000000001</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0003423354354318288</v>
+        <v>0.0003424561011224394</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>7.599036263382012e-05</v>
       </c>
       <c r="D211" t="n">
-        <v>7.646789908033009e-05</v>
+        <v>7.739041126657508e-06</v>
+      </c>
+      <c r="E211" t="n">
+        <v>1.335528826389167e-05</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.6936240811636362</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.9833167671424169</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.1387248162327272</v>
       </c>
     </row>
     <row r="212">
@@ -3328,13 +5868,25 @@
         <v>5.36827</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0003534225125222843</v>
+        <v>0.0003539108497662269</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>9.053384746661114e-05</v>
       </c>
       <c r="D212" t="n">
-        <v>8.688613500398009e-05</v>
+        <v>7.888352094482083e-06</v>
+      </c>
+      <c r="E212" t="n">
+        <v>1.398869204869671e-05</v>
+      </c>
+      <c r="F212" t="n">
+        <v>5.399835263613705</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.3690543444598078</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1.079967052722741</v>
       </c>
     </row>
     <row r="213">
@@ -3342,13 +5894,25 @@
         <v>5.36965</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0003510033151672306</v>
+        <v>0.0003508308309485913</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>7.246293123233012e-05</v>
       </c>
       <c r="D213" t="n">
-        <v>7.196323578536709e-05</v>
+        <v>8.349454039791103e-06</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.439365988808421e-05</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.3503900985995337</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.9965866088601339</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.07007801971990674</v>
       </c>
     </row>
     <row r="214">
@@ -3356,13 +5920,25 @@
         <v>5.371490000000001</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0003757810703002715</v>
+        <v>0.0003762977856333986</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>8.920414830430545e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>8.574199724181979e-05</v>
+        <v>8.336542118845426e-06</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.468412413380405e-05</v>
+      </c>
+      <c r="F214" t="n">
+        <v>5.394602048878558</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.3696415920521793</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1.078920409775712</v>
       </c>
     </row>
     <row r="215">
@@ -3370,13 +5946,25 @@
         <v>5.373419999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0003052782424878809</v>
+        <v>0.0003056116701955216</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>8.01911892219081e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>7.767763758514246e-05</v>
+        <v>6.682967009260045e-06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.189868757563375e-05</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4.027037827846022</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.5455297705605502</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.8054075655692043</v>
       </c>
     </row>
     <row r="216">
@@ -3384,13 +5972,25 @@
         <v>5.3748</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002056160724105891</v>
+        <v>0.0002057653377566966</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>5.08157096118595e-05</v>
       </c>
       <c r="D216" t="n">
-        <v>5.059045082816897e-05</v>
+        <v>4.72263370621094e-06</v>
+      </c>
+      <c r="E216" t="n">
+        <v>8.265764271647665e-06</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1.534667347138441</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.9090348728279527</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.3069334694276881</v>
       </c>
     </row>
     <row r="217">
@@ -3398,13 +5998,25 @@
         <v>5.38009</v>
       </c>
       <c r="B217" t="n">
-        <v>8.959481489063527e-05</v>
+        <v>8.93914195682811e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1.983302968612815e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>1.982549281228835e-05</v>
+        <v>2.477211459777392e-06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>4.186921477875848e-06</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.8147562018126032</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.9760826139351507</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.1629512403625206</v>
       </c>
     </row>
     <row r="218">
@@ -3412,13 +6024,25 @@
         <v>5.382919999999999</v>
       </c>
       <c r="B218" t="n">
-        <v>5.731632434451891e-05</v>
+        <v>5.736285219676823e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>6.41084006126514e-06</v>
       </c>
       <c r="D218" t="n">
-        <v>5.863169853268021e-06</v>
+        <v>1.764159603885634e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.860578201743247e-06</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1.388503197726086</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.9255667564120135</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.2777006395452172</v>
       </c>
     </row>
     <row r="219">
@@ -3426,13 +6050,25 @@
         <v>5.38334</v>
       </c>
       <c r="B219" t="n">
-        <v>8.1475197718707e-05</v>
+        <v>8.159897319167791e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1.753362990809524e-05</v>
       </c>
       <c r="D219" t="n">
-        <v>1.774579856588328e-05</v>
+        <v>2.127146629067119e-06</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.658814447571446e-06</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2.041541110309024</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.8433676947010168</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.4083082220618048</v>
       </c>
     </row>
     <row r="220">
@@ -3440,13 +6076,25 @@
         <v>5.383859999999999</v>
       </c>
       <c r="B220" t="n">
-        <v>5.09339174765954e-05</v>
+        <v>5.063955341694839e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>8.326704651030892e-06</v>
       </c>
       <c r="D220" t="n">
-        <v>8.049252288896953e-06</v>
+        <v>1.502446228708445e-06</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.504200912183308e-06</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3.212543436573954</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.6672554997649551</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.6425086873147908</v>
       </c>
     </row>
     <row r="221">
@@ -3454,13 +6102,25 @@
         <v>5.38596</v>
       </c>
       <c r="B221" t="n">
-        <v>3.960964793337976e-05</v>
+        <v>3.968855546467735e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>5.460140237464441e-06</v>
       </c>
       <c r="D221" t="n">
-        <v>5.717340357027568e-06</v>
+        <v>1.284037598864224e-06</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.154953538675773e-06</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1.515866057195953</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.9112316451931257</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.3031732114391906</v>
       </c>
     </row>
     <row r="222">
@@ -3468,13 +6128,25 @@
         <v>5.38986</v>
       </c>
       <c r="B222" t="n">
-        <v>3.391987314363624e-05</v>
+        <v>3.397460266702408e-05</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>2.13566526414723e-06</v>
       </c>
       <c r="D222" t="n">
-        <v>1.606405465532638e-06</v>
+        <v>1.119649329023232e-06</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.769171082211826e-06</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1.935973718865861</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.8579314939854004</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.3871947437731722</v>
       </c>
     </row>
     <row r="223">
@@ -3482,13 +6154,25 @@
         <v>5.39308</v>
       </c>
       <c r="B223" t="n">
-        <v>3.246686500022584e-05</v>
+        <v>3.225759524497987e-05</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>2.445262213613813e-06</v>
       </c>
       <c r="D223" t="n">
-        <v>2.591375709953598e-06</v>
+        <v>1.09465466961403e-06</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.809465529652285e-06</v>
+      </c>
+      <c r="F223" t="n">
+        <v>7.467437130015566</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.1881317722055553</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.493487426003113</v>
       </c>
     </row>
     <row r="224">
@@ -3496,13 +6180,25 @@
         <v>5.40341</v>
       </c>
       <c r="B224" t="n">
-        <v>3.146529489745069e-05</v>
+        <v>3.14415444386366e-05</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>2.353751697614858e-06</v>
       </c>
       <c r="D224" t="n">
-        <v>2.839067424967969e-06</v>
+        <v>1.105706350638339e-06</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.826696987213545e-06</v>
+      </c>
+      <c r="F224" t="n">
+        <v>7.74117758442457</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.171088538314905</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1.548235516884914</v>
       </c>
     </row>
     <row r="225">
@@ -3510,13 +6206,25 @@
         <v>5.41408</v>
       </c>
       <c r="B225" t="n">
-        <v>3.756433010543446e-05</v>
+        <v>3.769625557453255e-05</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1.698510427428263e-06</v>
       </c>
       <c r="D225" t="n">
-        <v>2.071261267717604e-06</v>
+        <v>1.266420266628947e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.038256325100846e-06</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1.372849744157138</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.9272600209603369</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.2745699488314275</v>
       </c>
     </row>
     <row r="226">
@@ -3524,13 +6232,25 @@
         <v>5.42436</v>
       </c>
       <c r="B226" t="n">
-        <v>3.81446984928061e-05</v>
+        <v>3.808727995841394e-05</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>4.909907218973641e-06</v>
       </c>
       <c r="D226" t="n">
-        <v>5.081516022441956e-06</v>
+        <v>1.309796840375964e-06</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.150528360245401e-06</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.9414403835538853</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.9671493861971647</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.188288076710777</v>
       </c>
     </row>
     <row r="227">
@@ -3538,13 +6258,25 @@
         <v>5.43541</v>
       </c>
       <c r="B227" t="n">
-        <v>4.216070502492647e-05</v>
+        <v>4.239210887905322e-05</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>7.711641785339998e-06</v>
       </c>
       <c r="D227" t="n">
-        <v>8.014713890506881e-06</v>
+        <v>1.236561381705648e-06</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.096684358525921e-06</v>
+      </c>
+      <c r="F227" t="n">
+        <v>3.159535573360536</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.675405519968205</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.6319071146721073</v>
       </c>
     </row>
     <row r="228">
@@ -3552,13 +6284,25 @@
         <v>5.43926</v>
       </c>
       <c r="B228" t="n">
-        <v>4.873754046119436e-05</v>
+        <v>4.891833658312483e-05</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>6.959106580871711e-06</v>
       </c>
       <c r="D228" t="n">
-        <v>7.352127573523243e-06</v>
+        <v>1.436483063683545e-06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.401536284702692e-06</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1.231948460687529</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.9417758701909387</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.2463896921375058</v>
       </c>
     </row>
     <row r="229">
@@ -3566,13 +6310,25 @@
         <v>5.44082</v>
       </c>
       <c r="B229" t="n">
-        <v>4.912792258788785e-05</v>
+        <v>4.967643772511114e-05</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>4.756290484573414e-06</v>
       </c>
       <c r="D229" t="n">
-        <v>5.872021236020753e-06</v>
+        <v>1.599854577629139e-06</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.654922764617065e-06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>11.3195416337791</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.04539985678228253</v>
+      </c>
+      <c r="H229" t="n">
+        <v>2.26390832675582</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/CSV/analytically/p2/a2/a2Fit.xlsx
+++ b/legendre_out/CSV/analytically/p2/a2/a2Fit.xlsx
@@ -423,7 +423,7 @@
         <v>6.291647799340972</v>
       </c>
       <c r="G2" t="n">
-        <v>0.27886568774142</v>
+        <v>0.2788656877414199</v>
       </c>
       <c r="H2" t="n">
         <v>1.258329559868195</v>
@@ -449,7 +449,7 @@
         <v>23.09508817070202</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003237249080249027</v>
+        <v>0.0003237249080249451</v>
       </c>
       <c r="H3" t="n">
         <v>4.619017634140404</v>
@@ -475,7 +475,7 @@
         <v>29.00038266411068</v>
       </c>
       <c r="G4" t="n">
-        <v>2.318357809294458e-05</v>
+        <v>2.318357809295431e-05</v>
       </c>
       <c r="H4" t="n">
         <v>5.800076532822136</v>
@@ -501,7 +501,7 @@
         <v>13.25579409430783</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02109605520017666</v>
+        <v>0.0210960552001767</v>
       </c>
       <c r="H5" t="n">
         <v>2.651158818861565</v>
@@ -683,7 +683,7 @@
         <v>9.397499045587345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09422159822715959</v>
+        <v>0.09422159822715956</v>
       </c>
       <c r="H12" t="n">
         <v>1.879499809117469</v>
@@ -735,7 +735,7 @@
         <v>13.66869510691917</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01785667551135994</v>
+        <v>0.0178566755113599</v>
       </c>
       <c r="H14" t="n">
         <v>2.733739021383835</v>
@@ -813,7 +813,7 @@
         <v>6.240042204665045</v>
       </c>
       <c r="G17" t="n">
-        <v>0.283557553164294</v>
+        <v>0.2835575531642939</v>
       </c>
       <c r="H17" t="n">
         <v>1.248008440933009</v>
@@ -1411,7 +1411,7 @@
         <v>5.572799985548898</v>
       </c>
       <c r="G40" t="n">
-        <v>0.350029117760839</v>
+        <v>0.3500291177608389</v>
       </c>
       <c r="H40" t="n">
         <v>1.11455999710978</v>
@@ -1567,7 +1567,7 @@
         <v>9.489461600938291</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09106305007903326</v>
+        <v>0.09106305007903329</v>
       </c>
       <c r="H46" t="n">
         <v>1.897892320187658</v>
@@ -3803,7 +3803,7 @@
         <v>6.189478591831383</v>
       </c>
       <c r="G132" t="n">
-        <v>0.2882160597869963</v>
+        <v>0.2882160597869962</v>
       </c>
       <c r="H132" t="n">
         <v>1.237895718366277</v>
@@ -5181,7 +5181,7 @@
         <v>6.101385168640315</v>
       </c>
       <c r="G185" t="n">
-        <v>0.2964783596563443</v>
+        <v>0.2964783596563442</v>
       </c>
       <c r="H185" t="n">
         <v>1.220277033728063</v>
@@ -5415,7 +5415,7 @@
         <v>5.216721345925854</v>
       </c>
       <c r="G194" t="n">
-        <v>0.390007965176203</v>
+        <v>0.3900079651762029</v>
       </c>
       <c r="H194" t="n">
         <v>1.043344269185171</v>
@@ -6325,7 +6325,7 @@
         <v>11.3195416337791</v>
       </c>
       <c r="G229" t="n">
-        <v>0.04539985678228253</v>
+        <v>0.04539985678228257</v>
       </c>
       <c r="H229" t="n">
         <v>2.26390832675582</v>
